--- a/opm_hero_property/heroes/114.xlsx
+++ b/opm_hero_property/heroes/114.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,40 +7079,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7152,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>114</v>
@@ -7179,13 +7199,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5638608.3238536</v>
+        <v>6723888.3487176</v>
       </c>
       <c r="U2" t="n">
-        <v>931267.1394655</v>
+        <v>1082875.5599855</v>
       </c>
       <c r="V2" t="n">
-        <v>712848.45769964</v>
+        <v>831900.4817316399</v>
       </c>
       <c r="W2" t="n">
         <v>4260</v>
@@ -7224,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7237,28 +7257,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11733880.80795</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>895160.8816466001</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2945749.864636</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1877282.8</v>
+      </c>
+      <c r="AU2" t="n">
         <v>947680.47834188</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16179100.21793848</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18995027.48257448</v>
       </c>
     </row>
     <row r="3">
@@ -7295,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>114</v>
@@ -7322,13 +7350,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>704477.4869972001</v>
+        <v>826697.7163252</v>
       </c>
       <c r="U3" t="n">
-        <v>136723.1183235</v>
+        <v>153796.3815635</v>
       </c>
       <c r="V3" t="n">
-        <v>94318.61102892</v>
+        <v>108004.86712492</v>
       </c>
       <c r="W3" t="n">
         <v>4260</v>
@@ -7367,7 +7395,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7380,28 +7408,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1328861.47795</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>102519.1678074</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>586923.518236</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>212478.8</v>
+      </c>
+      <c r="AU3" t="n">
         <v>110978.37108824</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2206069.01684564</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2524790.73508164</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>114</v>
@@ -7465,13 +7501,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>8181.600399999999</v>
+        <v>8753.600399999999</v>
       </c>
       <c r="U4" t="n">
-        <v>1581.9453</v>
+        <v>1660.9453</v>
       </c>
       <c r="V4" t="n">
-        <v>536.6718</v>
+        <v>598.6718</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7510,25 +7546,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19446.23582</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7536,7 +7568,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23996.18582</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1473.6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25469.78582</v>
       </c>
     </row>
     <row r="5">
@@ -7573,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>114</v>
@@ -7600,13 +7644,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>22292.9091</v>
+        <v>39092.9091</v>
       </c>
       <c r="U5" t="n">
-        <v>3950.5584</v>
+        <v>6297.5584</v>
       </c>
       <c r="V5" t="n">
-        <v>1620.944</v>
+        <v>3463.944</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7645,25 +7689,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49766.29006</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7671,7 +7711,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>61754.64006</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43591.55</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>105346.19006</v>
       </c>
     </row>
     <row r="6">
@@ -7708,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>114</v>
@@ -7735,13 +7787,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>62950.278</v>
+        <v>134977.278</v>
       </c>
       <c r="U6" t="n">
-        <v>10250.275</v>
+        <v>20311.275</v>
       </c>
       <c r="V6" t="n">
-        <v>5176.316</v>
+        <v>13077.316</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7780,33 +7832,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>119880.1925</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9526.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>168413.4925</v>
+      <c r="AT6" t="n">
+        <v>186878.65</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>355292.1425</v>
       </c>
     </row>
     <row r="7">
@@ -7843,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>114</v>
@@ -7870,13 +7930,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>73808.2585344</v>
+        <v>145835.2585344</v>
       </c>
       <c r="U7" t="n">
-        <v>12531.11058</v>
+        <v>22592.11058</v>
       </c>
       <c r="V7" t="n">
-        <v>6591.0918012</v>
+        <v>14492.0918012</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7915,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7928,28 +7988,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>119880.1925</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>186878.65</v>
+      </c>
+      <c r="AU7" t="n">
         <v>34730.7068933</v>
       </c>
-      <c r="AS7" t="n">
-        <v>203327.1993933</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>390205.8493933</v>
       </c>
     </row>
     <row r="8">
@@ -7986,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>114</v>
@@ -8013,13 +8081,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>84667.2390688</v>
+        <v>156694.2390688</v>
       </c>
       <c r="U8" t="n">
-        <v>14842.29926</v>
+        <v>24903.29926</v>
       </c>
       <c r="V8" t="n">
-        <v>8022.1488664</v>
+        <v>15923.1488664</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -8058,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8071,28 +8139,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>119880.1925</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>290.403658</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>186878.65</v>
+      </c>
+      <c r="AU8" t="n">
         <v>69475.0637866</v>
       </c>
-      <c r="AS8" t="n">
-        <v>238361.9599446</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>425240.6099446</v>
       </c>
     </row>
     <row r="9">
@@ -8129,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>114</v>
@@ -8156,31 +8232,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>274678.2236</v>
+        <v>482407.735836</v>
       </c>
       <c r="U9" t="n">
-        <v>41158.072</v>
+        <v>69986.18272</v>
       </c>
       <c r="V9" t="n">
-        <v>25036.1831</v>
+        <v>47806.476931</v>
       </c>
       <c r="W9" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA9" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8201,33 +8277,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>546216.5732250001</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>714944.9732250001</v>
+        <v>44792.31573225</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>437891.15</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1252637.63895725</v>
       </c>
     </row>
     <row r="10">
@@ -8264,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>114</v>
@@ -8291,31 +8375,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>286355.06947328</v>
+        <v>552575.0641800471</v>
       </c>
       <c r="U10" t="n">
-        <v>43731.1560064</v>
+        <v>81892.96832855041</v>
       </c>
       <c r="V10" t="n">
-        <v>26624.43811607</v>
+        <v>55781.03712211726</v>
       </c>
       <c r="W10" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA10" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8336,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8349,28 +8433,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>546216.5732250001</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>1313.3613985</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44792.31573225</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>437891.15</v>
+      </c>
+      <c r="AU10" t="n">
         <v>37250.2304613425</v>
       </c>
-      <c r="AS10" t="n">
-        <v>753508.5650848426</v>
+      <c r="AV10" t="n">
+        <v>253961.8782821267</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1450815.509099219</v>
       </c>
     </row>
     <row r="11">
@@ -8407,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>114</v>
@@ -8434,31 +8530,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>333065.4529664</v>
+        <v>664300.9545760432</v>
       </c>
       <c r="U11" t="n">
-        <v>54764.95776</v>
+        <v>102034.67494528</v>
       </c>
       <c r="V11" t="n">
-        <v>33465.57631306</v>
+        <v>69871.31580665307</v>
       </c>
       <c r="W11" t="n">
-        <v>2740</v>
+        <v>2750</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA11" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8479,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8492,28 +8588,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>546216.5732250001</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>14776.9753835</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44792.31573225</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>437891.15</v>
+      </c>
+      <c r="AU11" t="n">
         <v>186296.776701995</v>
       </c>
-      <c r="AS11" t="n">
-        <v>916018.725310495</v>
+      <c r="AV11" t="n">
+        <v>423504.4865439854</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1782868.27758673</v>
       </c>
     </row>
     <row r="12">
@@ -8550,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>114</v>
@@ -8577,31 +8685,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>333065.4529664</v>
+        <v>746893.1154716504</v>
       </c>
       <c r="U12" t="n">
-        <v>55997.40064</v>
+        <v>112597.42309856</v>
       </c>
       <c r="V12" t="n">
-        <v>34270.75163706</v>
+        <v>81477.15337771851</v>
       </c>
       <c r="W12" t="n">
-        <v>2940</v>
+        <v>2960</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2340</v>
+        <v>2360</v>
       </c>
       <c r="AA12" t="n">
-        <v>3600</v>
+        <v>3620</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8622,7 +8730,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8635,28 +8743,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>546216.5732250001</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>28240.5893685</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44792.31573225</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>437891.15</v>
+      </c>
+      <c r="AU12" t="n">
         <v>186296.776701995</v>
       </c>
-      <c r="AS12" t="n">
-        <v>929482.3392954951</v>
+      <c r="AV12" t="n">
+        <v>632699.5617458508</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2005526.966773596</v>
       </c>
     </row>
     <row r="13">
@@ -8693,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>114</v>
@@ -8720,31 +8840,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>390150.3749912</v>
+        <v>901248.836858971</v>
       </c>
       <c r="U13" t="n">
-        <v>69204.74246400001</v>
+        <v>138930.383100864</v>
       </c>
       <c r="V13" t="n">
-        <v>42476.70869771</v>
+        <v>100881.2326349158</v>
       </c>
       <c r="W13" t="n">
-        <v>3140</v>
+        <v>3190</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="AA13" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8765,7 +8885,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8778,28 +8898,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>546216.5732250001</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>41704.2033535</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44792.31573225</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>437891.15</v>
+      </c>
+      <c r="AU13" t="n">
         <v>368562.9964261325</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1125212.173004633</v>
+      <c r="AV13" t="n">
+        <v>885286.3291688161</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2453843.567905698</v>
       </c>
     </row>
     <row r="14">
@@ -8836,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>114</v>
@@ -8863,31 +8995,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>333065.4529664</v>
+        <v>976370.2115321152</v>
       </c>
       <c r="U14" t="n">
-        <v>57229.84352</v>
+        <v>141559.76114176</v>
       </c>
       <c r="V14" t="n">
-        <v>35075.92696106</v>
+        <v>103618.7860910694</v>
       </c>
       <c r="W14" t="n">
-        <v>3060</v>
+        <v>3110</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2280</v>
+        <v>2330</v>
       </c>
       <c r="AA14" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8908,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8921,28 +9053,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>546216.5732250001</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>41704.2033535</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39155.4</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44609.31573225</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>437891.15</v>
+      </c>
+      <c r="AU14" t="n">
         <v>186296.776701995</v>
       </c>
-      <c r="AS14" t="n">
-        <v>942762.953280495</v>
+      <c r="AV14" t="n">
+        <v>1176557.564421163</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2562665.583433908</v>
       </c>
     </row>
     <row r="15">
@@ -8979,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>114</v>
@@ -9006,31 +9150,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>485996.04019808</v>
+        <v>1551155.924261873</v>
       </c>
       <c r="U15" t="n">
-        <v>83033.85133408</v>
+        <v>234017.0879824256</v>
       </c>
       <c r="V15" t="n">
-        <v>56573.11157632</v>
+        <v>174341.3132431298</v>
       </c>
       <c r="W15" t="n">
-        <v>3220</v>
+        <v>3320</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="AA15" t="n">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9051,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9064,28 +9208,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>839848.07761</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>64505.51696524</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111894</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128674.4615522</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>801194.15</v>
+      </c>
+      <c r="AU15" t="n">
         <v>233979.261391832</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1397716.005967072</v>
+      <c r="AV15" t="n">
+        <v>1967336.764969334</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4183027.382488606</v>
       </c>
     </row>
     <row r="16">
@@ -9122,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>114</v>
@@ -9149,31 +9305,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>498200.68579776</v>
+        <v>1592959.140968416</v>
       </c>
       <c r="U16" t="n">
-        <v>85593.66604416</v>
+        <v>241078.2876993658</v>
       </c>
       <c r="V16" t="n">
-        <v>58159.65540918001</v>
+        <v>179204.2424256856</v>
       </c>
       <c r="W16" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AA16" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9194,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9207,28 +9363,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>839848.07761</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>64505.51696524</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112077</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128857.4615522</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>801194.15</v>
+      </c>
+      <c r="AU16" t="n">
         <v>272969.255530009</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1436889.000105249</v>
+      <c r="AV16" t="n">
+        <v>2048034.108384283</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4302897.720041732</v>
       </c>
     </row>
     <row r="17">
@@ -9265,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>114</v>
@@ -9292,31 +9460,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1141867.79465862</v>
+        <v>2859450.466228793</v>
       </c>
       <c r="U17" t="n">
-        <v>196248.8209978</v>
+        <v>432256.9332411616</v>
       </c>
       <c r="V17" t="n">
-        <v>152271.28344</v>
+        <v>344074.28643968</v>
       </c>
       <c r="W17" t="n">
-        <v>3620</v>
+        <v>3820</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA17" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9337,7 +9505,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9350,28 +9518,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1920536.9605</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>148799.3953224</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685015</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>761803.4784200001</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1280110.9</v>
+      </c>
+      <c r="AU17" t="n">
         <v>361632.68350104</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3385950.53932344</v>
+      <c r="AV17" t="n">
+        <v>3094406.534877528</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7837256.452620969</v>
       </c>
     </row>
     <row r="18">
@@ -9408,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>114</v>
@@ -9435,31 +9615,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5638608.3238536</v>
+        <v>9989668.984697027</v>
       </c>
       <c r="U18" t="n">
-        <v>931267.1394655</v>
+        <v>1479198.476063789</v>
       </c>
       <c r="V18" t="n">
-        <v>712848.45769964</v>
+        <v>1153226.482575973</v>
       </c>
       <c r="W18" t="n">
-        <v>4260</v>
+        <v>4460</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AA18" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9480,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9493,28 +9673,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11733880.80795</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>895160.8816466001</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2945749.864636</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1877282.8</v>
+      </c>
+      <c r="AU18" t="n">
         <v>947680.47834188</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16179100.21793848</v>
+      <c r="AV18" t="n">
+        <v>7850433.261774537</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26845460.74434901</v>
       </c>
     </row>
     <row r="19">
@@ -9551,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>114</v>
@@ -9578,31 +9770,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9118535.864453599</v>
+        <v>17014186.7875217</v>
       </c>
       <c r="U19" t="n">
-        <v>1499634.9213335</v>
+        <v>2618507.447256464</v>
       </c>
       <c r="V19" t="n">
-        <v>1148759.37331724</v>
+        <v>2046134.683192892</v>
       </c>
       <c r="W19" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>3960</v>
+        <v>4160</v>
       </c>
       <c r="AA19" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9623,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9636,28 +9828,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>19045333.58315</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>1450297.006737</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470479</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6327155.2874725</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1877282.8</v>
+      </c>
+      <c r="AU19" t="n">
         <v>947680.47834188</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26089632.21822888</v>
+      <c r="AV19" t="n">
+        <v>16044220.29624905</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>46867811.60195043</v>
       </c>
     </row>
     <row r="20">
@@ -9694,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>114</v>
@@ -9721,13 +9925,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>250860.7636639</v>
+        <v>258971.7636639</v>
       </c>
       <c r="U20" t="n">
-        <v>41415.69673849</v>
+        <v>42548.69673849</v>
       </c>
       <c r="V20" t="n">
-        <v>22870.2964584</v>
+        <v>23778.2964584</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9766,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9779,28 +9983,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>570915.9319699999</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>1409.37880988</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33359.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21149.7</v>
+      </c>
+      <c r="AU20" t="n">
         <v>20060.765015401</v>
       </c>
-      <c r="AS20" t="n">
-        <v>673288.7757952809</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>694438.475795281</v>
       </c>
     </row>
     <row r="21">
@@ -9837,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>114</v>
@@ -9864,13 +10076,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>314150.92662144</v>
+        <v>330831.02783744</v>
       </c>
       <c r="U21" t="n">
-        <v>51699.57981640001</v>
+        <v>54059.26635640001</v>
       </c>
       <c r="V21" t="n">
-        <v>31401.8226596</v>
+        <v>33228.62363359999</v>
       </c>
       <c r="W21" t="n">
         <v>1610</v>
@@ -9909,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9922,28 +10134,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>678754.39425</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>18683.2479966</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>66719.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>73498.8939425</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36686.75</v>
+      </c>
+      <c r="AU21" t="n">
         <v>26726.4154007</v>
       </c>
-      <c r="AS21" t="n">
-        <v>859180.7576473001</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>902646.8015898</v>
       </c>
     </row>
     <row r="22">
@@ -9980,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>114</v>
@@ -10007,31 +10227,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>428038.5687684</v>
+        <v>562242.7283447988</v>
       </c>
       <c r="U22" t="n">
-        <v>69967.83722235</v>
+        <v>88669.75160425734</v>
       </c>
       <c r="V22" t="n">
-        <v>46754.4724113</v>
+        <v>61413.39406403721</v>
       </c>
       <c r="W22" t="n">
-        <v>2940</v>
+        <v>2990</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="AA22" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10052,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10065,28 +10285,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>862837.607205</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>44987.42553162</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>96891.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105511.52607205</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49560.5</v>
+      </c>
+      <c r="AU22" t="n">
         <v>50264.77923097</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1192632.86196759</v>
+      <c r="AV22" t="n">
+        <v>289955.5422427484</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1540769.030282388</v>
       </c>
     </row>
     <row r="23">
@@ -10123,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>114</v>
@@ -10150,31 +10382,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>477719.96260758</v>
+        <v>706394.9784109307</v>
       </c>
       <c r="U23" t="n">
-        <v>82297.73503532</v>
+        <v>117969.7662292664</v>
       </c>
       <c r="V23" t="n">
-        <v>55772.82393001</v>
+        <v>81316.63754014744</v>
       </c>
       <c r="W23" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AA23" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10195,7 +10427,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10208,28 +10440,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>942917.324205</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>72558.48709462001</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>153419</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>172260.8464841</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>90677.8</v>
+      </c>
+      <c r="AU23" t="n">
         <v>66414.66064922549</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1379942.071948845</v>
+      <c r="AV23" t="n">
+        <v>514569.3128157714</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2004031.031248717</v>
       </c>
     </row>
     <row r="24">
@@ -10266,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>114</v>
@@ -10293,31 +10537,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>552495.010336</v>
+        <v>893688.964732896</v>
       </c>
       <c r="U24" t="n">
-        <v>100118.6975712</v>
+        <v>153781.1476008784</v>
       </c>
       <c r="V24" t="n">
-        <v>68436.49352092</v>
+        <v>107353.4160968324</v>
       </c>
       <c r="W24" t="n">
-        <v>3620</v>
+        <v>3820</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA24" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10338,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10351,28 +10595,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1068785.0406</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>82267.0437944</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>262506.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>305224.6016240001</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>144882.65</v>
+      </c>
+      <c r="AU24" t="n">
         <v>80229.57692817</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1651229.86132257</v>
+      <c r="AV24" t="n">
+        <v>750036.1127891731</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2588867.025735743</v>
       </c>
     </row>
     <row r="25">
@@ -10409,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>114</v>
@@ -10436,31 +10692,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>704477.4869972001</v>
+        <v>1533773.433891898</v>
       </c>
       <c r="U25" t="n">
-        <v>136723.1183235</v>
+        <v>264470.7774642735</v>
       </c>
       <c r="V25" t="n">
-        <v>94318.61102892</v>
+        <v>188508.9992612596</v>
       </c>
       <c r="W25" t="n">
-        <v>4260</v>
+        <v>4460</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AA25" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10481,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10494,28 +10750,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1328861.47795</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>102519.1678074</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>586923.518236</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>212478.8</v>
+      </c>
+      <c r="AU25" t="n">
         <v>110978.37108824</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2206069.01684564</v>
+      <c r="AV25" t="n">
+        <v>1936027.809065987</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4460818.544147627</v>
       </c>
     </row>
   </sheetData>
